--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.306399</v>
+        <v>0.09044833333333334</v>
       </c>
       <c r="H2">
-        <v>0.9191969999999999</v>
+        <v>0.271345</v>
       </c>
       <c r="I2">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="J2">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>50.42631110392949</v>
+        <v>18.23038215871583</v>
       </c>
       <c r="R2">
-        <v>302.557866623577</v>
+        <v>109.382292952295</v>
       </c>
       <c r="S2">
-        <v>0.07003963738996104</v>
+        <v>0.08131292304295122</v>
       </c>
       <c r="T2">
-        <v>0.05449212026188861</v>
+        <v>0.06562038748409525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.306399</v>
+        <v>0.09044833333333334</v>
       </c>
       <c r="H3">
-        <v>0.9191969999999999</v>
+        <v>0.271345</v>
       </c>
       <c r="I3">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="J3">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>36.38927133487199</v>
+        <v>10.74203552705333</v>
       </c>
       <c r="R3">
-        <v>327.5034420138479</v>
+        <v>96.67831974348</v>
       </c>
       <c r="S3">
-        <v>0.05054288750026629</v>
+        <v>0.04791267130504649</v>
       </c>
       <c r="T3">
-        <v>0.05898493781556292</v>
+        <v>0.0579990474842693</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.306399</v>
+        <v>0.09044833333333334</v>
       </c>
       <c r="H4">
-        <v>0.9191969999999999</v>
+        <v>0.271345</v>
       </c>
       <c r="I4">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="J4">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>25.900507092843</v>
+        <v>7.019960857053889</v>
       </c>
       <c r="R4">
-        <v>233.104563835587</v>
+        <v>63.179647713485</v>
       </c>
       <c r="S4">
-        <v>0.03597451578918839</v>
+        <v>0.03131111196488277</v>
       </c>
       <c r="T4">
-        <v>0.04198324792502374</v>
+        <v>0.03790259695758674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.306399</v>
+        <v>0.09044833333333334</v>
       </c>
       <c r="H5">
-        <v>0.9191969999999999</v>
+        <v>0.271345</v>
       </c>
       <c r="I5">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="J5">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>42.8677523345355</v>
+        <v>15.5607078857725</v>
       </c>
       <c r="R5">
-        <v>257.206514007213</v>
+        <v>93.36424731463499</v>
       </c>
       <c r="S5">
-        <v>0.05954117530123187</v>
+        <v>0.06940538227854634</v>
       </c>
       <c r="T5">
-        <v>0.04632412453800006</v>
+        <v>0.05601087635472449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.306399</v>
+        <v>0.09044833333333334</v>
       </c>
       <c r="H6">
-        <v>0.9191969999999999</v>
+        <v>0.271345</v>
       </c>
       <c r="I6">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="J6">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>37.29895648431599</v>
+        <v>5.413537675773889</v>
       </c>
       <c r="R6">
-        <v>335.6906083588439</v>
+        <v>48.72183908196499</v>
       </c>
       <c r="S6">
-        <v>0.0518063949155673</v>
+        <v>0.02414598709933608</v>
       </c>
       <c r="T6">
-        <v>0.0604594856700091</v>
+        <v>0.0292290998223145</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.306399</v>
+        <v>0.09044833333333334</v>
       </c>
       <c r="H7">
-        <v>0.9191969999999999</v>
+        <v>0.271345</v>
       </c>
       <c r="I7">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="J7">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>24.400299354965</v>
+        <v>7.802294590554444</v>
       </c>
       <c r="R7">
-        <v>219.602694194685</v>
+        <v>70.22065131498999</v>
       </c>
       <c r="S7">
-        <v>0.03389080187733731</v>
+        <v>0.03480055294929033</v>
       </c>
       <c r="T7">
-        <v>0.03955149656306778</v>
+        <v>0.04212662053706294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7088550000000001</v>
+        <v>0.2226423333333333</v>
       </c>
       <c r="H8">
-        <v>2.126565</v>
+        <v>0.6679269999999999</v>
       </c>
       <c r="I8">
-        <v>0.6982045872264478</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="J8">
-        <v>0.6982045872264477</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>116.6614210802775</v>
+        <v>44.87484370128283</v>
       </c>
       <c r="R8">
-        <v>699.9685264816651</v>
+        <v>269.249062207697</v>
       </c>
       <c r="S8">
-        <v>0.1620369099183119</v>
+        <v>0.2001551410540429</v>
       </c>
       <c r="T8">
-        <v>0.1260676826890462</v>
+        <v>0.161527312281742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7088550000000001</v>
+        <v>0.2226423333333333</v>
       </c>
       <c r="H9">
-        <v>2.126565</v>
+        <v>0.6679269999999999</v>
       </c>
       <c r="I9">
-        <v>0.6982045872264478</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="J9">
-        <v>0.6982045872264477</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>84.18668772444001</v>
+        <v>26.44196710268533</v>
       </c>
       <c r="R9">
-        <v>757.68018951996</v>
+        <v>237.977703924168</v>
       </c>
       <c r="S9">
-        <v>0.1169311209207643</v>
+        <v>0.1179390326218127</v>
       </c>
       <c r="T9">
-        <v>0.1364618294943875</v>
+        <v>0.1427670669775582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7088550000000001</v>
+        <v>0.2226423333333333</v>
       </c>
       <c r="H10">
-        <v>2.126565</v>
+        <v>0.6679269999999999</v>
       </c>
       <c r="I10">
-        <v>0.6982045872264478</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="J10">
-        <v>0.6982045872264477</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>59.92090037923501</v>
+        <v>17.27992553896122</v>
       </c>
       <c r="R10">
-        <v>539.2881034131151</v>
+        <v>155.519329850651</v>
       </c>
       <c r="S10">
-        <v>0.08322714953294605</v>
+        <v>0.07707360401469808</v>
       </c>
       <c r="T10">
-        <v>0.09712836924367477</v>
+        <v>0.09329881839757517</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7088550000000001</v>
+        <v>0.2226423333333333</v>
       </c>
       <c r="H11">
-        <v>2.126565</v>
+        <v>0.6679269999999999</v>
       </c>
       <c r="I11">
-        <v>0.6982045872264478</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="J11">
-        <v>0.6982045872264477</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>99.17467283214752</v>
+        <v>38.30332947362349</v>
       </c>
       <c r="R11">
-        <v>595.048036992885</v>
+        <v>229.819976841741</v>
       </c>
       <c r="S11">
-        <v>0.1377486865758528</v>
+        <v>0.1708442343480168</v>
       </c>
       <c r="T11">
-        <v>0.1071710002297136</v>
+        <v>0.137873101074212</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7088550000000001</v>
+        <v>0.2226423333333333</v>
       </c>
       <c r="H12">
-        <v>2.126565</v>
+        <v>0.6679269999999999</v>
       </c>
       <c r="I12">
-        <v>0.6982045872264478</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="J12">
-        <v>0.6982045872264477</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>86.29124702982</v>
+        <v>13.32564808331322</v>
       </c>
       <c r="R12">
-        <v>776.62122326838</v>
+        <v>119.930832749819</v>
       </c>
       <c r="S12">
-        <v>0.1198542490930926</v>
+        <v>0.05943635123292579</v>
       </c>
       <c r="T12">
-        <v>0.1398732003518755</v>
+        <v>0.07194864455589399</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7088550000000001</v>
+        <v>0.2226423333333333</v>
       </c>
       <c r="H13">
-        <v>2.126565</v>
+        <v>0.6679269999999999</v>
       </c>
       <c r="I13">
-        <v>0.6982045872264478</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="J13">
-        <v>0.6982045872264477</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>56.45016530492502</v>
+        <v>19.20567255333711</v>
       </c>
       <c r="R13">
-        <v>508.0514877443251</v>
+        <v>172.851052980034</v>
       </c>
       <c r="S13">
-        <v>0.07840647118548018</v>
+        <v>0.08566300808845062</v>
       </c>
       <c r="T13">
-        <v>0.09150250521775009</v>
+        <v>0.1036964280729655</v>
       </c>
     </row>
   </sheetData>
